--- a/biology/Zoologie/Formation_des_Grès_supérieurs/Formation_des_Grès_supérieurs.xlsx
+++ b/biology/Zoologie/Formation_des_Grès_supérieurs/Formation_des_Grès_supérieurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Formation_des_Gr%C3%A8s_sup%C3%A9rieurs</t>
+          <t>Formation_des_Grès_supérieurs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Formation des Grès Supérieurs est une formation géologique au Laos, dont les strates datent de l'étage Aptien à l'Albien du Crétacé inférieur. On retrouve entre autres des fossiles de dinosaures dans son sous-sol[1]. Elle équivaut à la Formation de Khok Kruat en Thaïlande.
+La Formation des Grès Supérieurs est une formation géologique au Laos, dont les strates datent de l'étage Aptien à l'Albien du Crétacé inférieur. On retrouve entre autres des fossiles de dinosaures dans son sous-sol. Elle équivaut à la Formation de Khok Kruat en Thaïlande.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Formation_des_Gr%C3%A8s_sup%C3%A9rieurs</t>
+          <t>Formation_des_Grès_supérieurs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,51 @@
           <t>Faune fossilifère</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La Formation des Grès Supérieurs a permis d'exhumer des restes d'iguanodontes non-identifiés, ainsi que des ichnites (traces) d'ornithopodes et de sauropodes.
-Poisson
-Dinosaures
-Légende des couleursTaxonTaxon faussement déclaré comme présentTaxon suspect ou synonyme plus récentIchnotaxonOotaxonMorphotaxonNotes Un taxon incertain ou vague est en plus petit ; un taxon barré a été discrédité.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Formation des Grès Supérieurs a permis d'exhumer des restes d'iguanodontes non-identifiés, ainsi que des ichnites (traces) d'ornithopodes et de sauropodes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Formation_des_Grès_supérieurs</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formation_des_Gr%C3%A8s_sup%C3%A9rieurs</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Faune fossilifère</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Dinosaures</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Légende des couleursTaxonTaxon faussement déclaré comme présentTaxon suspect ou synonyme plus récentIchnotaxonOotaxonMorphotaxonNotes Un taxon incertain ou vague est en plus petit ; un taxon barré a été discrédité.
 Autres fossiles
-Traces de sauropode[1]
-Traces d'ornithopode du clade euornithopode[1]</t>
+Traces de sauropode
+Traces d'ornithopode du clade euornithopode</t>
         </is>
       </c>
     </row>
